--- a/PWLPOS.v2/public/template_data/penjualan.xlsx
+++ b/PWLPOS.v2/public/template_data/penjualan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Tugas-WebLanjut\PWLPOS.v2\public\template_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509D3B71-774A-41D8-AD85-CDFB9CD3C977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD295DD-23F8-44A2-BD8F-10DEE30B66F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75C41F1E-5AF5-4043-8B20-BD82A7E7F480}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>user_id</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Administrator</t>
-  </si>
-  <si>
-    <t>2025-04-07 12:20:05</t>
   </si>
   <si>
     <t>barang_id</t>
@@ -452,7 +449,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -536,8 +533,8 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4" s="1">
+        <v>45754.51394675926</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>

--- a/PWLPOS.v2/public/template_data/penjualan.xlsx
+++ b/PWLPOS.v2/public/template_data/penjualan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Tugas-WebLanjut\PWLPOS.v2\public\template_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD295DD-23F8-44A2-BD8F-10DEE30B66F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C096AD3C-B426-4C9E-8250-F982941D71D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75C41F1E-5AF5-4043-8B20-BD82A7E7F480}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>user_id</t>
   </si>
@@ -48,18 +48,6 @@
     <t>penjualan_tanggal</t>
   </si>
   <si>
-    <t>PJ-1011</t>
-  </si>
-  <si>
-    <t>PJ-1012</t>
-  </si>
-  <si>
-    <t>PJ-1013</t>
-  </si>
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
     <t>barang_id</t>
   </si>
   <si>
@@ -67,6 +55,18 @@
   </si>
   <si>
     <t>harga</t>
+  </si>
+  <si>
+    <t>PJ-1014</t>
+  </si>
+  <si>
+    <t>PJ-1015</t>
+  </si>
+  <si>
+    <t>Djoko Susanto</t>
+  </si>
+  <si>
+    <t>Bachtiar Karim</t>
   </si>
 </sst>
 </file>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03116731-FA9B-4E5F-80DE-EE9C93A638F3}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,27 +474,27 @@
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45760.51394675926</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45754.51394675926</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -508,16 +508,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>45754.51394675926</v>
+        <v>45760.51394675926</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -527,29 +527,6 @@
       </c>
       <c r="G3">
         <v>37500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45754.51394675926</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>165000</v>
       </c>
     </row>
   </sheetData>
